--- a/hw03/hw03.xlsx
+++ b/hw03/hw03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jack\NTHU\2020_spring\Algorithm_EE39800\hw03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80B86A1-40B7-4190-BBBC-73BD660CBD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9835035A-0E2A-4850-ADFC-C99A870DB1D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Selection</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,30 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heap-average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heap-best</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heap-worst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shaker_average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shaker_best</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shaker_worst</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,6 +834,86 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>n(#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> data</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -873,6 +977,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>CPU runtime(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1622,31 +1782,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.7198790000000001E-6</c:v>
+                  <c:v>2.6140209999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0696600000000003E-6</c:v>
+                  <c:v>5.9938430000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.316212E-5</c:v>
+                  <c:v>1.3206009999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7536349999999996E-5</c:v>
+                  <c:v>2.9078009999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.038017E-4</c:v>
+                  <c:v>6.3375949999999994E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4503810000000001E-4</c:v>
+                  <c:v>1.3556390000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9882809999999999E-4</c:v>
+                  <c:v>2.9088589999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.478419E-4</c:v>
+                  <c:v>6.3200379999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4585500000000001E-3</c:v>
+                  <c:v>1.394532E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2515,31 +2675,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.6140209999999998E-6</c:v>
+                  <c:v>2.7198790000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9938430000000002E-6</c:v>
+                  <c:v>6.0696600000000003E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3206009999999999E-5</c:v>
+                  <c:v>3.316212E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9078009999999999E-5</c:v>
+                  <c:v>6.7536349999999996E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3375949999999994E-5</c:v>
+                  <c:v>1.038017E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3556390000000001E-4</c:v>
+                  <c:v>1.4503810000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9088589999999999E-4</c:v>
+                  <c:v>2.9882809999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3200379999999996E-4</c:v>
+                  <c:v>6.478419E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.394532E-3</c:v>
+                  <c:v>1.4585500000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2584,6 +2744,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> n (# of data)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2647,6 +2867,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>CPU runtime(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2685,6 +2961,1386 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1748840047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Heap sort</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap-average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.739906E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.365995E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0927660000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8638319999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.338763E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.442161E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0978970000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8040229999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.532816E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAE9-4BD5-919A-C49602D2A5EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap-best</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.6140209999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9938430000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3206009999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9078009999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3375949999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3556390000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9088589999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3200379999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.394532E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BAE9-4BD5-919A-C49602D2A5EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap-worst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.7198790000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0696600000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.316212E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7536349999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.038017E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4503810000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9882809999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.478419E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4585500000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BAE9-4BD5-919A-C49602D2A5EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1805612976"/>
+        <c:axId val="1140347056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1805612976"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>log n(# of data)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1140347056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1140347056"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>CPU runtime(log s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1805612976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shaker_average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$28:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$28:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0576250000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4718930000000008E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8013940000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.544161E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2752770000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1106379999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5800900000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8032039999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1825540000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B728-4501-9034-974183E83B81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shaker_best</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$28:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$28:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.3208079999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.903938E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.516626E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.283283E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5204009999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.077462E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8695740000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6965029999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2475110000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B728-4501-9034-974183E83B81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shaker_worst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$28:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$28:$K$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.214027E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4479369999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.675415E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6070080000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6360370000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1078279999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6529919999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6550169999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7676070000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B728-4501-9034-974183E83B81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1686604015"/>
+        <c:axId val="1687959327"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1686604015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687959327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1687959327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1686604015"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2891,6 +4547,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3924,6 +5660,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4544,6 +7312,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>387568</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>282465</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90652</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DA80C6-E4F3-4EBD-BFA0-960BA792CDE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>781707</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>65690</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>103790</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A6C29A-B919-4FF5-BDBC-21A36D60FA75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4815,10 +7655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:F57"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4826,7 +7666,7 @@
     <col min="2" max="6" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4845,8 +7685,20 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -4865,8 +7717,20 @@
       <c r="F2">
         <v>2.739906E-6</v>
       </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>2.739906E-6</v>
+      </c>
+      <c r="J2">
+        <v>2.6140209999999998E-6</v>
+      </c>
+      <c r="K2">
+        <v>2.7198790000000001E-6</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -4885,8 +7749,20 @@
       <c r="F3">
         <v>1.365995E-5</v>
       </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>1.365995E-5</v>
+      </c>
+      <c r="J3">
+        <v>5.9938430000000002E-6</v>
+      </c>
+      <c r="K3">
+        <v>6.0696600000000003E-6</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40</v>
       </c>
@@ -4905,8 +7781,20 @@
       <c r="F4">
         <v>3.0927660000000003E-5</v>
       </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>3.0927660000000003E-5</v>
+      </c>
+      <c r="J4">
+        <v>1.3206009999999999E-5</v>
+      </c>
+      <c r="K4">
+        <v>3.316212E-5</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>80</v>
       </c>
@@ -4925,8 +7813,20 @@
       <c r="F5">
         <v>6.8638319999999998E-5</v>
       </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>6.8638319999999998E-5</v>
+      </c>
+      <c r="J5">
+        <v>2.9078009999999999E-5</v>
+      </c>
+      <c r="K5">
+        <v>6.7536349999999996E-5</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>160</v>
       </c>
@@ -4945,8 +7845,20 @@
       <c r="F6">
         <v>1.338763E-4</v>
       </c>
+      <c r="H6">
+        <v>160</v>
+      </c>
+      <c r="I6">
+        <v>1.338763E-4</v>
+      </c>
+      <c r="J6">
+        <v>6.3375949999999994E-5</v>
+      </c>
+      <c r="K6">
+        <v>1.038017E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>320</v>
       </c>
@@ -4965,8 +7877,20 @@
       <c r="F7">
         <v>1.442161E-4</v>
       </c>
+      <c r="H7">
+        <v>320</v>
+      </c>
+      <c r="I7">
+        <v>1.442161E-4</v>
+      </c>
+      <c r="J7">
+        <v>1.3556390000000001E-4</v>
+      </c>
+      <c r="K7">
+        <v>1.4503810000000001E-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>640</v>
       </c>
@@ -4985,8 +7909,20 @@
       <c r="F8">
         <v>3.0978970000000001E-4</v>
       </c>
+      <c r="H8">
+        <v>640</v>
+      </c>
+      <c r="I8">
+        <v>3.0978970000000001E-4</v>
+      </c>
+      <c r="J8">
+        <v>2.9088589999999999E-4</v>
+      </c>
+      <c r="K8">
+        <v>2.9882809999999999E-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1280</v>
       </c>
@@ -5005,8 +7941,20 @@
       <c r="F9">
         <v>6.8040229999999998E-4</v>
       </c>
+      <c r="H9">
+        <v>1280</v>
+      </c>
+      <c r="I9">
+        <v>6.8040229999999998E-4</v>
+      </c>
+      <c r="J9">
+        <v>6.3200379999999996E-4</v>
+      </c>
+      <c r="K9">
+        <v>6.478419E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2560</v>
       </c>
@@ -5025,8 +7973,20 @@
       <c r="F10">
         <v>1.532816E-3</v>
       </c>
+      <c r="H10">
+        <v>2560</v>
+      </c>
+      <c r="I10">
+        <v>1.532816E-3</v>
+      </c>
+      <c r="J10">
+        <v>1.394532E-3</v>
+      </c>
+      <c r="K10">
+        <v>1.4585500000000001E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -5045,8 +8005,20 @@
       <c r="F27" t="s">
         <v>4</v>
       </c>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -5063,10 +8035,22 @@
         <v>8.3208079999999996E-7</v>
       </c>
       <c r="F28">
-        <v>2.7198790000000001E-6</v>
+        <v>2.6140209999999998E-6</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>1.0576250000000001E-6</v>
+      </c>
+      <c r="J28">
+        <v>8.3208079999999996E-7</v>
+      </c>
+      <c r="K28">
+        <v>1.214027E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
@@ -5083,10 +8067,22 @@
         <v>2.903938E-6</v>
       </c>
       <c r="F29">
-        <v>6.0696600000000003E-6</v>
+        <v>5.9938430000000002E-6</v>
+      </c>
+      <c r="H29">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <v>9.4718930000000008E-6</v>
+      </c>
+      <c r="J29">
+        <v>2.903938E-6</v>
+      </c>
+      <c r="K29">
+        <v>4.4479369999999998E-6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>40</v>
       </c>
@@ -5103,10 +8099,22 @@
         <v>3.516626E-5</v>
       </c>
       <c r="F30">
-        <v>3.316212E-5</v>
+        <v>1.3206009999999999E-5</v>
+      </c>
+      <c r="H30">
+        <v>40</v>
+      </c>
+      <c r="I30">
+        <v>3.8013940000000001E-5</v>
+      </c>
+      <c r="J30">
+        <v>3.516626E-5</v>
+      </c>
+      <c r="K30">
+        <v>1.675415E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>80</v>
       </c>
@@ -5123,10 +8131,22 @@
         <v>1.283283E-4</v>
       </c>
       <c r="F31">
-        <v>6.7536349999999996E-5</v>
+        <v>2.9078009999999999E-5</v>
+      </c>
+      <c r="H31">
+        <v>80</v>
+      </c>
+      <c r="I31">
+        <v>1.544161E-4</v>
+      </c>
+      <c r="J31">
+        <v>1.283283E-4</v>
+      </c>
+      <c r="K31">
+        <v>6.6070080000000002E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>160</v>
       </c>
@@ -5143,10 +8163,22 @@
         <v>5.5204009999999999E-4</v>
       </c>
       <c r="F32">
-        <v>1.038017E-4</v>
+        <v>6.3375949999999994E-5</v>
+      </c>
+      <c r="H32">
+        <v>160</v>
+      </c>
+      <c r="I32">
+        <v>6.2752770000000003E-4</v>
+      </c>
+      <c r="J32">
+        <v>5.5204009999999999E-4</v>
+      </c>
+      <c r="K32">
+        <v>2.6360370000000003E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>320</v>
       </c>
@@ -5163,10 +8195,22 @@
         <v>1.077462E-3</v>
       </c>
       <c r="F33">
-        <v>1.4503810000000001E-4</v>
+        <v>1.3556390000000001E-4</v>
+      </c>
+      <c r="H33">
+        <v>320</v>
+      </c>
+      <c r="I33">
+        <v>1.1106379999999999E-3</v>
+      </c>
+      <c r="J33">
+        <v>1.077462E-3</v>
+      </c>
+      <c r="K33">
+        <v>1.1078279999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>640</v>
       </c>
@@ -5183,10 +8227,22 @@
         <v>3.8695740000000002E-3</v>
       </c>
       <c r="F34">
-        <v>2.9882809999999999E-4</v>
+        <v>2.9088589999999999E-4</v>
+      </c>
+      <c r="H34">
+        <v>640</v>
+      </c>
+      <c r="I34">
+        <v>4.5800900000000002E-3</v>
+      </c>
+      <c r="J34">
+        <v>3.8695740000000002E-3</v>
+      </c>
+      <c r="K34">
+        <v>4.6529919999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1280</v>
       </c>
@@ -5203,10 +8259,22 @@
         <v>1.6965029999999999E-2</v>
       </c>
       <c r="F35">
-        <v>6.478419E-4</v>
+        <v>6.3200379999999996E-4</v>
+      </c>
+      <c r="H35">
+        <v>1280</v>
+      </c>
+      <c r="I35">
+        <v>1.8032039999999999E-2</v>
+      </c>
+      <c r="J35">
+        <v>1.6965029999999999E-2</v>
+      </c>
+      <c r="K35">
+        <v>1.6550169999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2560</v>
       </c>
@@ -5223,7 +8291,19 @@
         <v>8.2475110000000004E-2</v>
       </c>
       <c r="F36">
-        <v>1.4585500000000001E-3</v>
+        <v>1.394532E-3</v>
+      </c>
+      <c r="H36">
+        <v>2560</v>
+      </c>
+      <c r="I36">
+        <v>8.1825540000000002E-2</v>
+      </c>
+      <c r="J36">
+        <v>8.2475110000000004E-2</v>
+      </c>
+      <c r="K36">
+        <v>6.7676070000000005E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -5263,7 +8343,7 @@
         <v>1.214027E-6</v>
       </c>
       <c r="F54">
-        <v>2.6140209999999998E-6</v>
+        <v>2.7198790000000001E-6</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -5283,7 +8363,7 @@
         <v>4.4479369999999998E-6</v>
       </c>
       <c r="F55">
-        <v>5.9938430000000002E-6</v>
+        <v>6.0696600000000003E-6</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -5303,7 +8383,7 @@
         <v>1.675415E-5</v>
       </c>
       <c r="F56">
-        <v>1.3206009999999999E-5</v>
+        <v>3.316212E-5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -5323,7 +8403,7 @@
         <v>6.6070080000000002E-5</v>
       </c>
       <c r="F57">
-        <v>2.9078009999999999E-5</v>
+        <v>6.7536349999999996E-5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -5343,7 +8423,7 @@
         <v>2.6360370000000003E-4</v>
       </c>
       <c r="F58">
-        <v>6.3375949999999994E-5</v>
+        <v>1.038017E-4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -5363,7 +8443,7 @@
         <v>1.1078279999999999E-3</v>
       </c>
       <c r="F59">
-        <v>1.3556390000000001E-4</v>
+        <v>1.4503810000000001E-4</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -5383,7 +8463,7 @@
         <v>4.6529919999999999E-3</v>
       </c>
       <c r="F60">
-        <v>2.9088589999999999E-4</v>
+        <v>2.9882809999999999E-4</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5403,7 +8483,7 @@
         <v>1.6550169999999999E-2</v>
       </c>
       <c r="F61">
-        <v>6.3200379999999996E-4</v>
+        <v>6.478419E-4</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -5423,7 +8503,7 @@
         <v>6.7676070000000005E-2</v>
       </c>
       <c r="F62">
-        <v>1.394532E-3</v>
+        <v>1.4585500000000001E-3</v>
       </c>
     </row>
   </sheetData>
